--- a/biology/Zoologie/Cecidomyia_pericarpiicola/Cecidomyia_pericarpiicola.xlsx
+++ b/biology/Zoologie/Cecidomyia_pericarpiicola/Cecidomyia_pericarpiicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kiefferia pericarpiicola est une espèce d'insectes diptères de la famille des Cecidomyiidae et du genre Kiefferia. Originaire d'Europe, c'est un parasite des Apiacées qui provoque des galles sur les plantes, en particulier la Carotte.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique d'Europe[1] où elle est présente dans la plupart des pays[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique d'Europe où elle est présente dans la plupart des pays. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une à trois larves se partagent un fruit (d'Apiacées exclusivement) partiel. L'intérieur de la galle est tapissé d'un mycélium nutritif. Il n'y a qu'une génération par an. La larve hiberne dans le sol dans un cocon[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une à trois larves se partagent un fruit (d'Apiacées exclusivement) partiel. L'intérieur de la galle est tapissé d'un mycélium nutritif. Il n'y a qu'une génération par an. La larve hiberne dans le sol dans un cocon.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses plantes hôtes sont les espèces d'Apiacées suivantes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont les espèces d'Apiacées suivantes :
 Angelica archangelica
 Angelica sylvestris
 Anthriscus cerefolium
@@ -642,9 +660,11 @@
           <t>Inquilinisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces Amerapha gracilis, Contarinia inquilina, Lasioptera thuringiaca et Trotteria umbelliferarum sont des parasites de Kiefferia pericarpiicola sans pour autant avoir un impact négatif sur leur hôte : ce sont des inquilines[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces Amerapha gracilis, Contarinia inquilina, Lasioptera thuringiaca et Trotteria umbelliferarum sont des parasites de Kiefferia pericarpiicola sans pour autant avoir un impact négatif sur leur hôte : ce sont des inquilines.
 </t>
         </is>
       </c>
@@ -673,11 +693,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Kiefferia pericarpiicola (Bremi (d), 1847)[1].
-L'espèce a été initialement classée dans le genre Cecidomyia sous le protonyme Cecidomyia pericarpiicola Bremi, 1847[1],[4].
-Kiefferia pericarpiicola a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Kiefferia pericarpiicola (Bremi (d), 1847).
+L'espèce a été initialement classée dans le genre Cecidomyia sous le protonyme Cecidomyia pericarpiicola Bremi, 1847,.
+Kiefferia pericarpiicola a pour synonymes :
 Asphondylia pimpinellae Low, 1874
 Asphondylia umbellatarum Low, 1877
 Cecidomyia dauci Bremi, 1847
@@ -714,7 +736,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) J. J. Bremi, « Beitraege zu Einer Monographie der Gallmüchen, Cecidomyia Meigen », Nouveaux mémoires de la Société helvétique des sciences naturelles, Zurich, vol. 9, no 3,‎ 1847, p. 1-71 (OCLC 72789736, lire en ligne)</t>
         </is>
